--- a/trend_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/trend_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.97312164751207</v>
+        <v>0.02687835248793</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.657739327555993</v>
+        <v>0.342260672444007</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>

--- a/trend_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/trend_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.273418949342908</v>
+        <v>0.136090237994677</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.675675675675676</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.23</v>
+        <v>0.225</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0080825957019665</v>
+        <v>-0.02068617920541</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0370012261518779</v>
+        <v>-0.0543245262464904</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0156986040136302</v>
+        <v>0.0106937916355837</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.51417204433326</v>
+        <v>-9.19385742462666</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.02687835248793</v>
+        <v>0.0010858898278489</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.964285714285714</v>
+        <v>0.96</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.525</v>
+        <v>10.56</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.103824218544613</v>
+        <v>-0.155318930041153</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.207643419393536</v>
+        <v>-0.237326051938817</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0347218661046995</v>
+        <v>-0.07992093785823549</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.986453382846682</v>
+        <v>-1.47082320114728</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.08152361608546869</v>
+        <v>0.0125118357795142</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.403508771929825</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0.017</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0007819756719481</v>
+        <v>0.001337912087912</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0002850352042337</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0018093956426399</v>
+        <v>0.0025129537550821</v>
       </c>
       <c r="N4" t="n">
-        <v>4.59985689381276</v>
+        <v>7.87007110536522</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.439570916729037</v>
+        <v>0.395441161470312</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H5" t="n">
-        <v>0.842105263157895</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K5" t="n">
-        <v>3.13573145604396</v>
+        <v>9.845013477088949</v>
       </c>
       <c r="L5" t="n">
-        <v>-48.5135150558616</v>
+        <v>-47.060698060991</v>
       </c>
       <c r="M5" t="n">
-        <v>56.0695523636599</v>
+        <v>78.17111121531271</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8251924884326201</v>
+        <v>2.98333741729968</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.842866985898802</v>
+        <v>0.955202134780777</v>
       </c>
       <c r="G6" t="n">
-        <v>0.192307692307692</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0.807692307692308</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0227868207439091</v>
+        <v>0.0218425056532755</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0011319175108862</v>
+        <v>-0.0021107689608805</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0031090086796652</v>
+        <v>-0.0040375056467208</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002966139372729</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.96742184268429</v>
+        <v>-9.663584363380791</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.161353156619543</v>
+        <v>0.948894841584211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H7" t="n">
-        <v>0.210526315789474</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0006413537225564</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003753854059609</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.947368421052632</v>
+        <v>0.96078431372549</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.526</v>
+        <v>0.551</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.450598576115e-07</v>
+        <v>-0.0005024071526822</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.017698945324639</v>
+        <v>-0.0201142778402465</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0232585913027222</v>
+        <v>0.0294840034932723</v>
       </c>
       <c r="N8" t="n">
-        <v>-6.56007333862167e-05</v>
+        <v>-0.09118097144868539</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.342260672444007</v>
+        <v>0.0027954022833259</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.807017543859649</v>
+        <v>0.843137254901961</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.99</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.014283737578801</v>
+        <v>-0.104357142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0729319346437844</v>
+        <v>-0.161305056923026</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0409880860501684</v>
+        <v>-0.0474350649350642</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.178770182463091</v>
+        <v>-1.30446428571428</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.530042953386626</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.842105263157895</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0069786450156985</v>
+        <v>0.0010048143053645</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0205256073785504</v>
+        <v>-0.0265017140847588</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0203516952505016</v>
+        <v>0.0334068177657514</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.24618660994618</v>
+        <v>0.172648506076377</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.180794064777091</v>
+        <v>0.0218355787244671</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.649122807017544</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>0.86</v>
       </c>
       <c r="K11" t="n">
-        <v>1.49559458398744</v>
+        <v>0.0397551020408163</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.70380959044794</v>
+        <v>0.0100585197968159</v>
       </c>
       <c r="M11" t="n">
-        <v>5.24539908280915</v>
+        <v>0.06502246180424499</v>
       </c>
       <c r="N11" t="n">
-        <v>6.79815719994291</v>
+        <v>4.62268628381585</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.38118440923492</v>
+        <v>0.0263731610154819</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.736842105263158</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.82</v>
+        <v>0.056</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0100023841604256</v>
+        <v>0.0076439945404913</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0161249931746691</v>
+        <v>0.0012413190710342</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0292471751879173</v>
+        <v>0.0146524886872452</v>
       </c>
       <c r="N12" t="n">
-        <v>1.21980294639336</v>
+        <v>13.6499902508774</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.127738405727252</v>
+        <v>0.0402832855638391</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.771929824561403</v>
+        <v>0.9803921568627449</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.056</v>
+        <v>12.9</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0037461538461538</v>
+        <v>0.682335164835165</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.001559173680804</v>
+        <v>0.0282251094454863</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0102054492113884</v>
+        <v>6.01278204665755</v>
       </c>
       <c r="N13" t="n">
-        <v>6.68956043956044</v>
+        <v>5.28941988244314</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1633,97 +1633,6 @@
         </is>
       </c>
       <c r="W13" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Kai Iwi at Handley Road</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.248758888064994</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.982456140350877</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.470241388917686</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-0.391578054169163</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.47409611554975</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.53564954073448</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1762564</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5583791</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Whanganui District</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Kai Iwi</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Kai Iwi</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>West_2</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
+++ b/trend_results/Rivers/KaiIwiatHandleyRoad_08593f41c8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
   <si>
     <t>site name</t>
   </si>
@@ -127,7 +127,7 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
+    <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -136,19 +136,31 @@
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -530,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,31 +636,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.136090237994677</v>
+        <v>0.155218769150379</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.794117647058823</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.225</v>
+        <v>0.18</v>
       </c>
       <c r="K2">
-        <v>-0.02068617920541</v>
+        <v>-0.0231745486656201</v>
       </c>
       <c r="L2">
-        <v>-0.0543245262464904</v>
+        <v>-0.0627713968501912</v>
       </c>
       <c r="M2">
-        <v>0.0106937916355837</v>
+        <v>0.013593547219194</v>
       </c>
       <c r="N2">
-        <v>-9.19385742462666</v>
+        <v>-12.8747492586778</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -663,19 +675,19 @@
         <v>5583791</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -689,37 +701,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.0010858898278489</v>
+        <v>0.651802654779927</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.96</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.56</v>
+        <v>10.525</v>
       </c>
       <c r="K3">
-        <v>-0.155318930041153</v>
+        <v>0.0401373626373618</v>
       </c>
       <c r="L3">
-        <v>-0.237326051938817</v>
+        <v>-0.143728820443857</v>
       </c>
       <c r="M3">
-        <v>-0.07992093785823549</v>
+        <v>0.190085984126456</v>
       </c>
       <c r="N3">
-        <v>-1.47082320114728</v>
+        <v>0.381352614131703</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -734,19 +746,19 @@
         <v>5583791</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -766,13 +778,13 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0125118357795142</v>
+        <v>0.008116022870870499</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.411764705882353</v>
+        <v>0.465116279069767</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -781,16 +793,16 @@
         <v>0.017</v>
       </c>
       <c r="K4">
-        <v>0.001337912087912</v>
+        <v>0.0018859724612736</v>
       </c>
       <c r="L4">
-        <v>0.0002850352042337</v>
+        <v>0.0004193324148086</v>
       </c>
       <c r="M4">
-        <v>0.0025129537550821</v>
+        <v>0.003526506233631</v>
       </c>
       <c r="N4">
-        <v>7.87007110536522</v>
+        <v>11.093955654551</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -805,19 +817,19 @@
         <v>5583791</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -831,37 +843,37 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.395441161470312</v>
+        <v>0.330114937668775</v>
       </c>
       <c r="G5">
-        <v>0.0196078431372549</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.862745098039216</v>
+        <v>0.953488372093023</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K5">
-        <v>9.845013477088949</v>
+        <v>25.7165816326531</v>
       </c>
       <c r="L5">
-        <v>-47.060698060991</v>
+        <v>-60.6517260661923</v>
       </c>
       <c r="M5">
-        <v>78.17111121531271</v>
+        <v>160.072356395466</v>
       </c>
       <c r="N5">
-        <v>2.98333741729968</v>
+        <v>6.12299562682216</v>
       </c>
       <c r="O5" t="s">
         <v>38</v>
@@ -876,19 +888,19 @@
         <v>5583791</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -905,40 +917,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0.955202134780777</v>
+        <v>0.656444450998576</v>
       </c>
       <c r="G6">
-        <v>0.208333333333333</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H6">
-        <v>0.791666666666667</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0218425056532755</v>
+        <v>0.0200668597775221</v>
       </c>
       <c r="K6">
-        <v>-0.0021107689608805</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.0040375056467208</v>
+        <v>-0.0032738312406372</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0020852048074096</v>
       </c>
       <c r="N6">
-        <v>-9.663584363380791</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <v>1762564</v>
@@ -947,19 +959,19 @@
         <v>5583791</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -979,13 +991,13 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.948894841584211</v>
+        <v>0.999594627074135</v>
       </c>
       <c r="G7">
-        <v>0.0196078431372549</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="H7">
-        <v>0.196078431372549</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -994,22 +1006,22 @@
         <v>0.005</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0007247023809523</v>
       </c>
       <c r="L7">
-        <v>-0.0006413537225564</v>
+        <v>-0.001120075762165</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.0002648010057854</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-14.4940476190476</v>
       </c>
       <c r="O7" t="s">
         <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q7">
         <v>1762564</v>
@@ -1018,19 +1030,19 @@
         <v>5583791</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1044,43 +1056,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.0402475188274097</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.96078431372549</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.551</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K8">
-        <v>-0.0005024071526822</v>
+        <v>0.030282206632653</v>
       </c>
       <c r="L8">
-        <v>-0.0201142778402465</v>
+        <v>0.0013293824928889</v>
       </c>
       <c r="M8">
-        <v>0.0294840034932723</v>
+        <v>0.0620705561828193</v>
       </c>
       <c r="N8">
-        <v>-0.09118097144868539</v>
+        <v>5.36918557316543</v>
       </c>
       <c r="O8" t="s">
         <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1762564</v>
@@ -1089,19 +1101,19 @@
         <v>5583791</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1121,37 +1133,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.0027954022833259</v>
+        <v>0.0052482815770219</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.843137254901961</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>7.91</v>
       </c>
       <c r="K9">
-        <v>-0.104357142857143</v>
+        <v>-0.134173469387755</v>
       </c>
       <c r="L9">
-        <v>-0.161305056923026</v>
+        <v>-0.226943241974615</v>
       </c>
       <c r="M9">
-        <v>-0.0474350649350642</v>
+        <v>-0.0448124891624466</v>
       </c>
       <c r="N9">
-        <v>-1.30446428571428</v>
+        <v>-1.69625119327124</v>
       </c>
       <c r="O9" t="s">
         <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1762564</v>
@@ -1160,16 +1172,16 @@
         <v>5583791</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1183,43 +1195,43 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.0290896254844118</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.882352941176471</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.582</v>
+        <v>0.592</v>
       </c>
       <c r="K10">
-        <v>0.0010048143053645</v>
+        <v>0.0361236263736264</v>
       </c>
       <c r="L10">
-        <v>-0.0265017140847588</v>
+        <v>0.0047204560630598</v>
       </c>
       <c r="M10">
-        <v>0.0334068177657514</v>
+        <v>0.06663707952920769</v>
       </c>
       <c r="N10">
-        <v>0.172648506076377</v>
+        <v>6.10196391446392</v>
       </c>
       <c r="O10" t="s">
         <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1762564</v>
@@ -1228,19 +1240,19 @@
         <v>5583791</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1254,37 +1266,37 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0218355787244671</v>
+        <v>0.0049975523709702</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.764705882352941</v>
+        <v>0.7906976744186049</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="K11">
-        <v>0.0397551020408163</v>
+        <v>0.0815290178571428</v>
       </c>
       <c r="L11">
-        <v>0.0100585197968159</v>
+        <v>0.0274196025744123</v>
       </c>
       <c r="M11">
-        <v>0.06502246180424499</v>
+        <v>0.134376307251214</v>
       </c>
       <c r="N11">
-        <v>4.62268628381585</v>
+        <v>8.959232731554151</v>
       </c>
       <c r="O11" t="s">
         <v>38</v>
@@ -1299,19 +1311,19 @@
         <v>5583791</v>
       </c>
       <c r="S11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1325,43 +1337,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0263731610154819</v>
+        <v>0.0411147115644339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.823529411764706</v>
+        <v>0.883720930232558</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.056</v>
+        <v>0.066</v>
       </c>
       <c r="K12">
-        <v>0.0076439945404913</v>
+        <v>0.008586901763224099</v>
       </c>
       <c r="L12">
-        <v>0.0012413190710342</v>
+        <v>0.0006194173978091</v>
       </c>
       <c r="M12">
-        <v>0.0146524886872452</v>
+        <v>0.0170320799817805</v>
       </c>
       <c r="N12">
-        <v>13.6499902508774</v>
+        <v>13.0104572170063</v>
       </c>
       <c r="O12" t="s">
         <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q12">
         <v>1762564</v>
@@ -1370,19 +1382,19 @@
         <v>5583791</v>
       </c>
       <c r="S12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="V12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="W12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1396,43 +1408,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.0402832855638391</v>
+        <v>0.145240879362213</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9803921568627449</v>
+        <v>0.976744186046512</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="K13">
-        <v>0.682335164835165</v>
+        <v>1.84059227748691</v>
       </c>
       <c r="L13">
-        <v>0.0282251094454863</v>
+        <v>-0.812384154763671</v>
       </c>
       <c r="M13">
-        <v>6.01278204665755</v>
+        <v>8.4913139534994</v>
       </c>
       <c r="N13">
-        <v>5.28941988244314</v>
+        <v>11.7235176909994</v>
       </c>
       <c r="O13" t="s">
         <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q13">
         <v>1762564</v>
@@ -1441,19 +1453,868 @@
         <v>5583791</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0.199908209404915</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.5909090909090911</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.2075</v>
+      </c>
+      <c r="K14">
+        <v>-0.0055509118541033</v>
+      </c>
+      <c r="L14">
+        <v>-0.0173881869537369</v>
+      </c>
+      <c r="M14">
+        <v>0.0059624374089602</v>
+      </c>
+      <c r="N14">
+        <v>-2.67513824294137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14">
+        <v>1762564</v>
+      </c>
+      <c r="R14">
+        <v>5583791</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>0.606328848587989</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.9222222222222221</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>10.5</v>
+      </c>
+      <c r="K15">
+        <v>0.0049693877551019</v>
+      </c>
+      <c r="L15">
+        <v>-0.0347493618465847</v>
+      </c>
+      <c r="M15">
+        <v>0.0588895180485046</v>
+      </c>
+      <c r="N15">
+        <v>0.0473275024295422</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>1762564</v>
+      </c>
+      <c r="R15">
+        <v>5583791</v>
+      </c>
+      <c r="S15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" t="s">
+        <v>50</v>
+      </c>
+      <c r="U15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V15" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>0.0100827907513715</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.017</v>
+      </c>
+      <c r="K16">
+        <v>0.0005997536945812</v>
+      </c>
+      <c r="L16">
+        <v>2.63361903144213E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.001003434065934</v>
+      </c>
+      <c r="N16">
+        <v>3.52796290930165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16">
+        <v>1762564</v>
+      </c>
+      <c r="R16">
+        <v>5583791</v>
+      </c>
+      <c r="S16" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" t="s">
+        <v>50</v>
+      </c>
+      <c r="V16" t="s">
+        <v>51</v>
+      </c>
+      <c r="W16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>0.56050142488983</v>
+      </c>
+      <c r="G17">
+        <v>0.010989010989011</v>
+      </c>
+      <c r="H17">
+        <v>0.791208791208791</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>350</v>
+      </c>
+      <c r="K17">
+        <v>-1.36697854860794</v>
+      </c>
+      <c r="L17">
+        <v>-27.6350775889884</v>
+      </c>
+      <c r="M17">
+        <v>28.0887962627125</v>
+      </c>
+      <c r="N17">
+        <v>-0.390565299602269</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17">
+        <v>1762564</v>
+      </c>
+      <c r="R17">
+        <v>5583791</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>0.830201724851537</v>
+      </c>
+      <c r="G18">
+        <v>0.186666666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.813333333333333</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0.0206771678498626</v>
+      </c>
+      <c r="K18">
+        <v>-0.0005373494023723</v>
+      </c>
+      <c r="L18">
+        <v>-0.00178019100752</v>
+      </c>
+      <c r="M18">
+        <v>0.0001923121782122</v>
+      </c>
+      <c r="N18">
+        <v>-2.59875726827817</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
         <v>46</v>
       </c>
-      <c r="U13" t="s">
+      <c r="Q18">
+        <v>1762564</v>
+      </c>
+      <c r="R18">
+        <v>5583791</v>
+      </c>
+      <c r="S18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" t="s">
+        <v>50</v>
+      </c>
+      <c r="V18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>0.999876248025302</v>
+      </c>
+      <c r="G19">
+        <v>0.043956043956044</v>
+      </c>
+      <c r="H19">
+        <v>0.197802197802198</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.005</v>
+      </c>
+      <c r="K19">
+        <v>-0.0005017170329669999</v>
+      </c>
+      <c r="L19">
+        <v>-0.0007996009987917</v>
+      </c>
+      <c r="M19">
+        <v>-0.0002394275843615</v>
+      </c>
+      <c r="N19">
+        <v>-10.0343406593407</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19">
+        <v>1762564</v>
+      </c>
+      <c r="R19">
+        <v>5583791</v>
+      </c>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" t="s">
+        <v>50</v>
+      </c>
+      <c r="V19" t="s">
+        <v>51</v>
+      </c>
+      <c r="W19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>0.08028552774352971</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.956043956043956</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.526</v>
+      </c>
+      <c r="K20">
+        <v>0.0081764782441783</v>
+      </c>
+      <c r="L20">
+        <v>-0.0011736369740762</v>
+      </c>
+      <c r="M20">
+        <v>0.0159104116497629</v>
+      </c>
+      <c r="N20">
+        <v>1.55446354452059</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20">
+        <v>1762564</v>
+      </c>
+      <c r="R20">
+        <v>5583791</v>
+      </c>
+      <c r="S20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>0.187944120250352</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.688888888888889</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.98</v>
+      </c>
+      <c r="K21">
+        <v>-0.0153407789232531</v>
+      </c>
+      <c r="L21">
+        <v>-0.0394619316943871</v>
+      </c>
+      <c r="M21">
+        <v>0.0119464744534062</v>
+      </c>
+      <c r="N21">
+        <v>-0.192240337384124</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21">
+        <v>1762564</v>
+      </c>
+      <c r="R21">
+        <v>5583791</v>
+      </c>
+      <c r="S21" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" t="s">
+        <v>50</v>
+      </c>
+      <c r="V21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>0.26798455166203</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0.851851851851852</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.582</v>
+      </c>
+      <c r="K22">
+        <v>0.0042813653757463</v>
+      </c>
+      <c r="L22">
+        <v>-0.009594074122488401</v>
+      </c>
+      <c r="M22">
+        <v>0.0155061023371631</v>
+      </c>
+      <c r="N22">
+        <v>0.735629789647135</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22">
+        <v>1762564</v>
+      </c>
+      <c r="R22">
+        <v>5583791</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>0.297338060508332</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.626373626373626</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.84</v>
+      </c>
+      <c r="K23">
+        <v>0.0070896537672853</v>
+      </c>
+      <c r="L23">
+        <v>-0.0058030535036721</v>
+      </c>
+      <c r="M23">
+        <v>0.0190823047785297</v>
+      </c>
+      <c r="N23">
+        <v>0.8440064008673021</v>
+      </c>
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23">
+        <v>1762564</v>
+      </c>
+      <c r="R23">
+        <v>5583791</v>
+      </c>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>0.324172796465122</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.703296703296703</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.055</v>
+      </c>
+      <c r="K24">
+        <v>0.000834064621684</v>
+      </c>
+      <c r="L24">
+        <v>-0.0024516790610874</v>
+      </c>
+      <c r="M24">
+        <v>0.0039362041605235</v>
+      </c>
+      <c r="N24">
+        <v>1.51648113033463</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24">
+        <v>1762564</v>
+      </c>
+      <c r="R24">
+        <v>5583791</v>
+      </c>
+      <c r="S24" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>0.715269684311842</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.978021978021978</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>13.5</v>
+      </c>
+      <c r="K25">
+        <v>-0.302081436420722</v>
+      </c>
+      <c r="L25">
+        <v>-0.9222766387861751</v>
+      </c>
+      <c r="M25">
+        <v>0.32725175051504</v>
+      </c>
+      <c r="N25">
+        <v>-2.23764026978313</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" t="s">
         <v>46</v>
       </c>
-      <c r="V13" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" t="s">
-        <v>52</v>
+      <c r="Q25">
+        <v>1762564</v>
+      </c>
+      <c r="R25">
+        <v>5583791</v>
+      </c>
+      <c r="S25" t="s">
+        <v>49</v>
+      </c>
+      <c r="T25" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" t="s">
+        <v>50</v>
+      </c>
+      <c r="V25" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
